--- a/m1/Ejercicios/20191030/Funciones de texto.xlsx
+++ b/m1/Ejercicios/20191030/Funciones de texto.xlsx
@@ -10981,11 +10981,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F432"/>
+  <dimension ref="A1:E432"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10994,7 +10992,7 @@
     <col min="6" max="6" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
@@ -11005,7 +11003,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>182</v>
       </c>
@@ -11016,15 +11014,11 @@
         <v>7.55</v>
       </c>
       <c r="E2" t="str">
-        <f>RIGHT(TRIM(B2),LEN(B2)-FIND(".",B2)-6)</f>
-        <v>1.       ABAD SARRAGA, LORENA</v>
-      </c>
-      <c r="F2">
-        <f>FIND(".",B2)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <f>PROPER(TRIM(RIGHT(B2,LEN(B2)-FIND(" ",B2))))</f>
+        <v>Abad Sarraga, Lorena</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>184</v>
       </c>
@@ -11035,11 +11029,11 @@
         <v>7.5</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="0">PROPER((TRIM(RIGHT(B3,LEN(B3)-4))))</f>
-        <v>     Abascal Cabrera, Noelia</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E3:E66" si="0">PROPER(TRIM(RIGHT(B3,LEN(B3)-FIND(" ",B3))))</f>
+        <v>Abascal Cabrera, Noelia</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>186</v>
       </c>
@@ -11051,10 +11045,10 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>     Acebo Moreno, Beatriz</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>Acebo Moreno, Beatriz</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>188</v>
       </c>
@@ -11066,10 +11060,10 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>     Aguazo Callejo, Victoriano</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>Aguazo Callejo, Victoriano</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>190</v>
       </c>
@@ -11081,10 +11075,10 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>     Agudo Gómez, María Ángeles</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>Agudo Gómez, María Ángeles</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>192</v>
       </c>
@@ -11096,10 +11090,10 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>     Agudo Gutierrez, Aquilina</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>Agudo Gutierrez, Aquilina</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>194</v>
       </c>
@@ -11111,10 +11105,10 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>     Agudo Gutierrez, Maria Remedios</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>Agudo Gutierrez, Maria Remedios</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>196</v>
       </c>
@@ -11126,10 +11120,10 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>     Aguilera Rama, Maria Dolores</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>Aguilera Rama, Maria Dolores</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>198</v>
       </c>
@@ -11141,10 +11135,10 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>     Agundez Garcia, Maria Elena</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>Agundez Garcia, Maria Elena</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>200</v>
       </c>
@@ -11156,10 +11150,10 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>  Alba Gallardo, Teresa</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>Alba Gallardo, Teresa</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>202</v>
       </c>
@@ -11171,10 +11165,10 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>  Alejos Fuentes, Maria Blanca</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>Alejos Fuentes, Maria Blanca</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>204</v>
       </c>
@@ -11186,10 +11180,10 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>  Alonso Espinosa, Luis</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>Alonso Espinosa, Luis</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>206</v>
       </c>
@@ -11201,10 +11195,10 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>  Alonso Mancha, Maria Concepción</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>Alonso Mancha, Maria Concepción</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>208</v>
       </c>
@@ -11216,10 +11210,10 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>  Alonso Mantecon, Maria Isabel</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>Alonso Mantecon, Maria Isabel</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>210</v>
       </c>
@@ -11231,7 +11225,7 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>  Alvarez Martin, Gema</v>
+        <v>Alvarez Martin, Gema</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11246,7 +11240,7 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>  Alvarez Seco, Purificacion</v>
+        <v>Alvarez Seco, Purificacion</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11261,7 +11255,7 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>  Alvaro Domingo, Carmen Yolanda</v>
+        <v>Alvaro Domingo, Carmen Yolanda</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11276,7 +11270,7 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>  Amieva De La Vega, Roberto</v>
+        <v>Amieva De La Vega, Roberto</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11291,7 +11285,7 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>  Andres Pedrosa, Raquel</v>
+        <v>Andres Pedrosa, Raquel</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11306,7 +11300,7 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>  Anton Grande, Ana Belen</v>
+        <v>Anton Grande, Ana Belen</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11321,7 +11315,7 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>  Aragon De La Parte, Margarita</v>
+        <v>Aragon De La Parte, Margarita</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11336,7 +11330,7 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>  Arce Amutio, Maria Isabel</v>
+        <v>Arce Amutio, Maria Isabel</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11351,7 +11345,7 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>  Arenal Martin, Maria Jose</v>
+        <v>Arenal Martin, Maria Jose</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11366,7 +11360,7 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>  Arenas Granja, Gema</v>
+        <v>Arenas Granja, Gema</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11381,7 +11375,7 @@
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>  Arias Gomez, Elena Maria</v>
+        <v>Arias Gomez, Elena Maria</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11396,7 +11390,7 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>  Arranz Yoldi, Maria Begoña</v>
+        <v>Arranz Yoldi, Maria Begoña</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11411,7 +11405,7 @@
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>  Arrieta Canales, Carolina</v>
+        <v>Arrieta Canales, Carolina</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11426,7 +11420,7 @@
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>  Arriola Saiz, Silvia</v>
+        <v>Arriola Saiz, Silvia</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11441,7 +11435,7 @@
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>  Arroyo Gutierrez, Asuncion</v>
+        <v>Arroyo Gutierrez, Asuncion</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11456,7 +11450,7 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>  Astuy Saiz, M. Carmen</v>
+        <v>Astuy Saiz, M. Carmen</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11471,7 +11465,7 @@
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>  Bada Garcia, Maria Lourdes</v>
+        <v>Bada Garcia, Maria Lourdes</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11486,7 +11480,7 @@
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>  Bahillo Garcia, Maria Josefa</v>
+        <v>Bahillo Garcia, Maria Josefa</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11501,7 +11495,7 @@
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>  Balbas Hernandez, Julia</v>
+        <v>Balbas Hernandez, Julia</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11516,7 +11510,7 @@
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>  Balza Carral, Rafaela</v>
+        <v>Balza Carral, Rafaela</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11531,7 +11525,7 @@
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>  Baquero Mier, Maria Reyes</v>
+        <v>Baquero Mier, Maria Reyes</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11546,7 +11540,7 @@
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>  Barcena Estebanez, Ines Sandra</v>
+        <v>Barcena Estebanez, Ines Sandra</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11561,7 +11555,7 @@
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>  Barcena Iglesias, Maria Paz</v>
+        <v>Barcena Iglesias, Maria Paz</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11576,7 +11570,7 @@
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>  Barcina Amezaga, Maria Jose</v>
+        <v>Barcina Amezaga, Maria Jose</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11591,7 +11585,7 @@
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>  Barquin San Martin, Pilar</v>
+        <v>Barquin San Martin, Pilar</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11606,7 +11600,7 @@
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>  Barrio Puente, Inmaculada</v>
+        <v>Barrio Puente, Inmaculada</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11621,7 +11615,7 @@
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>  Bedia Mora, Victoria Maria</v>
+        <v>Bedia Mora, Victoria Maria</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11636,7 +11630,7 @@
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
-        <v>  Bedia Navarro, Maria Asuncion</v>
+        <v>Bedia Navarro, Maria Asuncion</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11651,7 +11645,7 @@
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
-        <v>  Bedia Ordoñez, Maria Rosa</v>
+        <v>Bedia Ordoñez, Maria Rosa</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11666,7 +11660,7 @@
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
-        <v>  Bejerano Garcia, Maria Ramona</v>
+        <v>Bejerano Garcia, Maria Ramona</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11681,7 +11675,7 @@
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
-        <v>  Benito Castañera, Maria Angeles</v>
+        <v>Benito Castañera, Maria Angeles</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11696,7 +11690,7 @@
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>  Benito Gonzalez, Silvia</v>
+        <v>Benito Gonzalez, Silvia</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11711,7 +11705,7 @@
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>  Bezanilla Bezanilla, Maria Del Mar</v>
+        <v>Bezanilla Bezanilla, Maria Del Mar</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11726,7 +11720,7 @@
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
-        <v>  Bielsa Nogues, Jose Antonio</v>
+        <v>Bielsa Nogues, Jose Antonio</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11741,7 +11735,7 @@
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
-        <v>  Blanco Garcia, Maria</v>
+        <v>Blanco Garcia, Maria</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11756,7 +11750,7 @@
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
-        <v>  Blanco Garcia, Maria Carmen</v>
+        <v>Blanco Garcia, Maria Carmen</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11771,7 +11765,7 @@
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
-        <v>  Boada De La Serna, Maria Del Mar</v>
+        <v>Boada De La Serna, Maria Del Mar</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11786,7 +11780,7 @@
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
-        <v>  Bolado Incera, Begoña</v>
+        <v>Bolado Incera, Begoña</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11801,7 +11795,7 @@
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
-        <v>  Bolado Verdugo, Maria Luz</v>
+        <v>Bolado Verdugo, Maria Luz</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11816,7 +11810,7 @@
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
-        <v>  Bravo Ledo, Eloina</v>
+        <v>Bravo Ledo, Eloina</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11831,7 +11825,7 @@
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
-        <v>  Bueno Gutierrez, Maria Teresa</v>
+        <v>Bueno Gutierrez, Maria Teresa</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11846,7 +11840,7 @@
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
-        <v>  Bueno Mena, Nuria</v>
+        <v>Bueno Mena, Nuria</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11861,7 +11855,7 @@
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
-        <v>  Burriel Lou, Maria Pilar</v>
+        <v>Burriel Lou, Maria Pilar</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11876,7 +11870,7 @@
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
-        <v>  Bustamante Cruz, Maria Jose</v>
+        <v>Bustamante Cruz, Maria Jose</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11891,7 +11885,7 @@
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
-        <v>  Caballero Cortes, Maria Jose</v>
+        <v>Caballero Cortes, Maria Jose</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11906,7 +11900,7 @@
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
-        <v>  Cabarga Trueba, Maria Lucia</v>
+        <v>Cabarga Trueba, Maria Lucia</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11921,7 +11915,7 @@
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
-        <v>  Cadelo Sanchez, Virginia</v>
+        <v>Cadelo Sanchez, Virginia</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11936,7 +11930,7 @@
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
-        <v>  Calderon Lezcano, Maria Angeles</v>
+        <v>Calderon Lezcano, Maria Angeles</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11951,7 +11945,7 @@
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
-        <v>  Calleja Del Rio, Monica</v>
+        <v>Calleja Del Rio, Monica</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11966,7 +11960,7 @@
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
-        <v>  Calleja Ortiz, Maria Rosario</v>
+        <v>Calleja Ortiz, Maria Rosario</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11981,7 +11975,7 @@
       </c>
       <c r="E66" t="str">
         <f t="shared" si="0"/>
-        <v>  Calvo Castillo, Juan Antonio</v>
+        <v>Calvo Castillo, Juan Antonio</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11995,8 +11989,8 @@
         <v>8</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E130" si="1">PROPER((TRIM(RIGHT(B67,LEN(B67)-4))))</f>
-        <v>  Camacho Gonzalo, Ana</v>
+        <f t="shared" ref="E67:E130" si="1">PROPER(TRIM(RIGHT(B67,LEN(B67)-FIND(" ",B67))))</f>
+        <v>Camacho Gonzalo, Ana</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12011,7 +12005,7 @@
       </c>
       <c r="E68" t="str">
         <f t="shared" si="1"/>
-        <v>  Camacho Gonzalo, Maria Angeles</v>
+        <v>Camacho Gonzalo, Maria Angeles</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12026,7 +12020,7 @@
       </c>
       <c r="E69" t="str">
         <f t="shared" si="1"/>
-        <v>  Cameno Bermejo, Mercedes</v>
+        <v>Cameno Bermejo, Mercedes</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12041,7 +12035,7 @@
       </c>
       <c r="E70" t="str">
         <f t="shared" si="1"/>
-        <v>  Camino Renteria, Cristina</v>
+        <v>Camino Renteria, Cristina</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12056,7 +12050,7 @@
       </c>
       <c r="E71" t="str">
         <f t="shared" si="1"/>
-        <v>  Campo Campo, Maria Jesus</v>
+        <v>Campo Campo, Maria Jesus</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12071,7 +12065,7 @@
       </c>
       <c r="E72" t="str">
         <f t="shared" si="1"/>
-        <v>  Campo Campo, Maria Margarita</v>
+        <v>Campo Campo, Maria Margarita</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12086,7 +12080,7 @@
       </c>
       <c r="E73" t="str">
         <f t="shared" si="1"/>
-        <v>  Campo Negrete, Ana</v>
+        <v>Campo Negrete, Ana</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12101,7 +12095,7 @@
       </c>
       <c r="E74" t="str">
         <f t="shared" si="1"/>
-        <v>  Campo San Sebastian, Pilar</v>
+        <v>Campo San Sebastian, Pilar</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12116,7 +12110,7 @@
       </c>
       <c r="E75" t="str">
         <f t="shared" si="1"/>
-        <v>  Campo Santayana, Miguel Angel</v>
+        <v>Campo Santayana, Miguel Angel</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12131,7 +12125,7 @@
       </c>
       <c r="E76" t="str">
         <f t="shared" si="1"/>
-        <v>  Canales Diego, Josefa</v>
+        <v>Canales Diego, Josefa</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12146,7 +12140,7 @@
       </c>
       <c r="E77" t="str">
         <f t="shared" si="1"/>
-        <v>  Cano Martinez, Julio Jose</v>
+        <v>Cano Martinez, Julio Jose</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12161,7 +12155,7 @@
       </c>
       <c r="E78" t="str">
         <f t="shared" si="1"/>
-        <v>  Cano Mier, Montserrat</v>
+        <v>Cano Mier, Montserrat</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12176,7 +12170,7 @@
       </c>
       <c r="E79" t="str">
         <f t="shared" si="1"/>
-        <v>  Carbajales Mesa, Rosa Maria</v>
+        <v>Carbajales Mesa, Rosa Maria</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12191,7 +12185,7 @@
       </c>
       <c r="E80" t="str">
         <f t="shared" si="1"/>
-        <v>  Castillo Cobo, Asuncion Del</v>
+        <v>Castillo Cobo, Asuncion Del</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12206,7 +12200,7 @@
       </c>
       <c r="E81" t="str">
         <f t="shared" si="1"/>
-        <v>  Castillo Gonzalez, Maria Josefa</v>
+        <v>Castillo Gonzalez, Maria Josefa</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12221,7 +12215,7 @@
       </c>
       <c r="E82" t="str">
         <f t="shared" si="1"/>
-        <v>  Castillo Isidro, Gema C. Del</v>
+        <v>Castillo Isidro, Gema C. Del</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12236,7 +12230,7 @@
       </c>
       <c r="E83" t="str">
         <f t="shared" si="1"/>
-        <v>  Castillo Montequin, Begoña</v>
+        <v>Castillo Montequin, Begoña</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12251,7 +12245,7 @@
       </c>
       <c r="E84" t="str">
         <f t="shared" si="1"/>
-        <v>  Castro Gonzalez, Maria Del Mar</v>
+        <v>Castro Gonzalez, Maria Del Mar</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12266,7 +12260,7 @@
       </c>
       <c r="E85" t="str">
         <f t="shared" si="1"/>
-        <v>  Cerro Aparicio, Noemi Del</v>
+        <v>Cerro Aparicio, Noemi Del</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12281,7 +12275,7 @@
       </c>
       <c r="E86" t="str">
         <f t="shared" si="1"/>
-        <v>  Cirre Perez, Concepcion</v>
+        <v>Cirre Perez, Concepcion</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12296,7 +12290,7 @@
       </c>
       <c r="E87" t="str">
         <f t="shared" si="1"/>
-        <v>  Cobo Escudero, Ma Isabel</v>
+        <v>Cobo Escudero, Ma Isabel</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12311,7 +12305,7 @@
       </c>
       <c r="E88" t="str">
         <f t="shared" si="1"/>
-        <v>  Cobo San Emeterio, Ana Belen</v>
+        <v>Cobo San Emeterio, Ana Belen</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12326,7 +12320,7 @@
       </c>
       <c r="E89" t="str">
         <f t="shared" si="1"/>
-        <v>  Colina Fernandez, Luis</v>
+        <v>Colina Fernandez, Luis</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12341,7 +12335,7 @@
       </c>
       <c r="E90" t="str">
         <f t="shared" si="1"/>
-        <v>  Collado Nieves, Maria Fe</v>
+        <v>Collado Nieves, Maria Fe</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12356,7 +12350,7 @@
       </c>
       <c r="E91" t="str">
         <f t="shared" si="1"/>
-        <v>  Condette Gomez, Monique Marie</v>
+        <v>Condette Gomez, Monique Marie</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12371,7 +12365,7 @@
       </c>
       <c r="E92" t="str">
         <f t="shared" si="1"/>
-        <v>  Corral Estevez, Sebastiana</v>
+        <v>Corral Estevez, Sebastiana</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12386,7 +12380,7 @@
       </c>
       <c r="E93" t="str">
         <f t="shared" si="1"/>
-        <v>  Correa Sanz, Carmen</v>
+        <v>Correa Sanz, Carmen</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12401,7 +12395,7 @@
       </c>
       <c r="E94" t="str">
         <f t="shared" si="1"/>
-        <v>  Cortes Terradillos, M. Rosario</v>
+        <v>Cortes Terradillos, M. Rosario</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12416,7 +12410,7 @@
       </c>
       <c r="E95" t="str">
         <f t="shared" si="1"/>
-        <v>  Cos Barreda, Rosa Emilia De</v>
+        <v>Cos Barreda, Rosa Emilia De</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12431,7 +12425,7 @@
       </c>
       <c r="E96" t="str">
         <f t="shared" si="1"/>
-        <v>  Cos Cobo, Ramona De</v>
+        <v>Cos Cobo, Ramona De</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12446,7 +12440,7 @@
       </c>
       <c r="E97" t="str">
         <f t="shared" si="1"/>
-        <v>  Cos Rada, Josefa</v>
+        <v>Cos Rada, Josefa</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12461,7 +12455,7 @@
       </c>
       <c r="E98" t="str">
         <f t="shared" si="1"/>
-        <v>  Cosio Linares, Maria Josefa</v>
+        <v>Cosio Linares, Maria Josefa</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12476,7 +12470,7 @@
       </c>
       <c r="E99" t="str">
         <f t="shared" si="1"/>
-        <v>  Cotera Gonzalez, Eva</v>
+        <v>Cotera Gonzalez, Eva</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12491,7 +12485,7 @@
       </c>
       <c r="E100" t="str">
         <f t="shared" si="1"/>
-        <v>  Cotera Peña, Maria Reyes</v>
+        <v>Cotera Peña, Maria Reyes</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12506,7 +12500,7 @@
       </c>
       <c r="E101" t="str">
         <f t="shared" si="1"/>
-        <v>           Crespo Olavarria, Luis Angel</v>
+        <v>Crespo Olavarria, Luis Angel</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12521,7 +12515,7 @@
       </c>
       <c r="E102" t="str">
         <f t="shared" si="1"/>
-        <v>           Crespo Salmon, Ana</v>
+        <v>Crespo Salmon, Ana</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12536,7 +12530,7 @@
       </c>
       <c r="E103" t="str">
         <f t="shared" si="1"/>
-        <v>           Cruz Gomez, Celia</v>
+        <v>Cruz Gomez, Celia</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12551,7 +12545,7 @@
       </c>
       <c r="E104" t="str">
         <f t="shared" si="1"/>
-        <v>           Cruz Gutierrez, Ana</v>
+        <v>Cruz Gutierrez, Ana</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12566,7 +12560,7 @@
       </c>
       <c r="E105" t="str">
         <f t="shared" si="1"/>
-        <v>           Cuartas Bueno, Maria Cristina</v>
+        <v>Cuartas Bueno, Maria Cristina</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12581,7 +12575,7 @@
       </c>
       <c r="E106" t="str">
         <f t="shared" si="1"/>
-        <v>           Cuerno Garcia, Maria Carmen</v>
+        <v>Cuerno Garcia, Maria Carmen</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12596,7 +12590,7 @@
       </c>
       <c r="E107" t="str">
         <f t="shared" si="1"/>
-        <v>           Cuesta Arenal, Eva Maria</v>
+        <v>Cuesta Arenal, Eva Maria</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12611,7 +12605,7 @@
       </c>
       <c r="E108" t="str">
         <f t="shared" si="1"/>
-        <v>           Cuesta Peña, Raquel</v>
+        <v>Cuesta Peña, Raquel</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12626,7 +12620,7 @@
       </c>
       <c r="E109" t="str">
         <f t="shared" si="1"/>
-        <v>           Cuetos Martinez, Natalia</v>
+        <v>Cuetos Martinez, Natalia</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12641,7 +12635,7 @@
       </c>
       <c r="E110" t="str">
         <f t="shared" si="1"/>
-        <v>           Diaz Avila, Fernando</v>
+        <v>Diaz Avila, Fernando</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12656,7 +12650,7 @@
       </c>
       <c r="E111" t="str">
         <f t="shared" si="1"/>
-        <v>           Diaz Gonzalez, Sandra</v>
+        <v>Diaz Gonzalez, Sandra</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12671,7 +12665,7 @@
       </c>
       <c r="E112" t="str">
         <f t="shared" si="1"/>
-        <v>           Diaz Oviaño, Juan Francisco</v>
+        <v>Diaz Oviaño, Juan Francisco</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12686,7 +12680,7 @@
       </c>
       <c r="E113" t="str">
         <f t="shared" si="1"/>
-        <v>           Diaz San Julian, Maria</v>
+        <v>Diaz San Julian, Maria</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12701,7 +12695,7 @@
       </c>
       <c r="E114" t="str">
         <f t="shared" si="1"/>
-        <v>           Diaz San Julian, Maria Teresa</v>
+        <v>Diaz San Julian, Maria Teresa</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12716,7 +12710,7 @@
       </c>
       <c r="E115" t="str">
         <f t="shared" si="1"/>
-        <v>           Diaz Sañudo, Maria Dolores</v>
+        <v>Diaz Sañudo, Maria Dolores</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12731,7 +12725,7 @@
       </c>
       <c r="E116" t="str">
         <f t="shared" si="1"/>
-        <v>           Diez Merino, Cristina</v>
+        <v>Diez Merino, Cristina</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12746,7 +12740,7 @@
       </c>
       <c r="E117" t="str">
         <f t="shared" si="1"/>
-        <v>           Dizy Lopez, Maria Rosario</v>
+        <v>Dizy Lopez, Maria Rosario</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12761,7 +12755,7 @@
       </c>
       <c r="E118" t="str">
         <f t="shared" si="1"/>
-        <v>           Doce Quintilla, Iban Nicolas</v>
+        <v>Doce Quintilla, Iban Nicolas</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12776,7 +12770,7 @@
       </c>
       <c r="E119" t="str">
         <f t="shared" si="1"/>
-        <v>           Echevarria Monje, Julia</v>
+        <v>Echevarria Monje, Julia</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12791,7 +12785,7 @@
       </c>
       <c r="E120" t="str">
         <f t="shared" si="1"/>
-        <v>           Emeric Silva, Gabriel</v>
+        <v>Emeric Silva, Gabriel</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12806,7 +12800,7 @@
       </c>
       <c r="E121" t="str">
         <f t="shared" si="1"/>
-        <v>           Escobar Diez, Maria Luisa</v>
+        <v>Escobar Diez, Maria Luisa</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12821,7 +12815,7 @@
       </c>
       <c r="E122" t="str">
         <f t="shared" si="1"/>
-        <v>           Escobar Reyes, Francisca</v>
+        <v>Escobar Reyes, Francisca</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12836,7 +12830,7 @@
       </c>
       <c r="E123" t="str">
         <f t="shared" si="1"/>
-        <v>           Escudero Gomez, Adela</v>
+        <v>Escudero Gomez, Adela</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12851,7 +12845,7 @@
       </c>
       <c r="E124" t="str">
         <f t="shared" si="1"/>
-        <v>           Exposito Gutierrez, Maria Dolores</v>
+        <v>Exposito Gutierrez, Maria Dolores</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12866,7 +12860,7 @@
       </c>
       <c r="E125" t="str">
         <f t="shared" si="1"/>
-        <v>           Exposito Merodio, Laura</v>
+        <v>Exposito Merodio, Laura</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12881,7 +12875,7 @@
       </c>
       <c r="E126" t="str">
         <f t="shared" si="1"/>
-        <v>           Fernandez Abascal, Ramon</v>
+        <v>Fernandez Abascal, Ramon</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12896,7 +12890,7 @@
       </c>
       <c r="E127" t="str">
         <f t="shared" si="1"/>
-        <v>           Fernandez Alonso, Maria Olga</v>
+        <v>Fernandez Alonso, Maria Olga</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12911,7 +12905,7 @@
       </c>
       <c r="E128" t="str">
         <f t="shared" si="1"/>
-        <v>           Fernandez De Alba Alonso, Vanessa</v>
+        <v>Fernandez De Alba Alonso, Vanessa</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12926,7 +12920,7 @@
       </c>
       <c r="E129" t="str">
         <f t="shared" si="1"/>
-        <v>           Fernandez Fernandez, Maria Belen</v>
+        <v>Fernandez Fernandez, Maria Belen</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12941,7 +12935,7 @@
       </c>
       <c r="E130" t="str">
         <f t="shared" si="1"/>
-        <v>           Fernandez Fuente, M. Angeles</v>
+        <v>Fernandez Fuente, M. Angeles</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12955,8 +12949,8 @@
         <v>8</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" ref="E131:E194" si="2">PROPER((TRIM(RIGHT(B131,LEN(B131)-4))))</f>
-        <v>           Fernandez Garcia Del Rivero, Cristina Maria</v>
+        <f t="shared" ref="E131:E194" si="2">PROPER(TRIM(RIGHT(B131,LEN(B131)-FIND(" ",B131))))</f>
+        <v>Fernandez Garcia Del Rivero, Cristina Maria</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12971,7 +12965,7 @@
       </c>
       <c r="E132" t="str">
         <f t="shared" si="2"/>
-        <v>           Fernandez Garcia, Maria Pilar</v>
+        <v>Fernandez Garcia, Maria Pilar</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12986,7 +12980,7 @@
       </c>
       <c r="E133" t="str">
         <f t="shared" si="2"/>
-        <v>           Fernandez Gomez, Beatriz</v>
+        <v>Fernandez Gomez, Beatriz</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13001,7 +12995,7 @@
       </c>
       <c r="E134" t="str">
         <f t="shared" si="2"/>
-        <v>           Fernandez Herrera, Blanca</v>
+        <v>Fernandez Herrera, Blanca</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13016,7 +13010,7 @@
       </c>
       <c r="E135" t="str">
         <f t="shared" si="2"/>
-        <v>           Fernandez Llanos, Graciela Maria</v>
+        <v>Fernandez Llanos, Graciela Maria</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13031,7 +13025,7 @@
       </c>
       <c r="E136" t="str">
         <f t="shared" si="2"/>
-        <v>           Fernandez Martin, Consolacion</v>
+        <v>Fernandez Martin, Consolacion</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13046,7 +13040,7 @@
       </c>
       <c r="E137" t="str">
         <f t="shared" si="2"/>
-        <v>           Fernandez Rodriguez, Francisco</v>
+        <v>Fernandez Rodriguez, Francisco</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13061,7 +13055,7 @@
       </c>
       <c r="E138" t="str">
         <f t="shared" si="2"/>
-        <v>           Fernandez Rodriguez, Gloria</v>
+        <v>Fernandez Rodriguez, Gloria</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13076,7 +13070,7 @@
       </c>
       <c r="E139" t="str">
         <f t="shared" si="2"/>
-        <v>           Ferroni Martinez, Rosa Ana</v>
+        <v>Ferroni Martinez, Rosa Ana</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13091,7 +13085,7 @@
       </c>
       <c r="E140" t="str">
         <f t="shared" si="2"/>
-        <v>           Frechilla Arocha, Carmen Mercedes</v>
+        <v>Frechilla Arocha, Carmen Mercedes</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13106,7 +13100,7 @@
       </c>
       <c r="E141" t="str">
         <f t="shared" si="2"/>
-        <v>           Frias Fernandez, Monica</v>
+        <v>Frias Fernandez, Monica</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13121,7 +13115,7 @@
       </c>
       <c r="E142" t="str">
         <f t="shared" si="2"/>
-        <v>           Galaron Lopez, Maria Teresa</v>
+        <v>Galaron Lopez, Maria Teresa</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13136,7 +13130,7 @@
       </c>
       <c r="E143" t="str">
         <f t="shared" si="2"/>
-        <v>           Gallardo Aja, Ana Alicia</v>
+        <v>Gallardo Aja, Ana Alicia</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13151,7 +13145,7 @@
       </c>
       <c r="E144" t="str">
         <f t="shared" si="2"/>
-        <v>           Gallo Carral, Olga</v>
+        <v>Gallo Carral, Olga</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13166,7 +13160,7 @@
       </c>
       <c r="E145" t="str">
         <f t="shared" si="2"/>
-        <v>           Gandara Pescador, Esperanza</v>
+        <v>Gandara Pescador, Esperanza</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13181,7 +13175,7 @@
       </c>
       <c r="E146" t="str">
         <f t="shared" si="2"/>
-        <v>           Gandarillas Perez, Maria Yolanda</v>
+        <v>Gandarillas Perez, Maria Yolanda</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13196,7 +13190,7 @@
       </c>
       <c r="E147" t="str">
         <f t="shared" si="2"/>
-        <v>           Gaño Muela, Rosalia</v>
+        <v>Gaño Muela, Rosalia</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13211,7 +13205,7 @@
       </c>
       <c r="E148" t="str">
         <f t="shared" si="2"/>
-        <v>           Garcia Escudero, Lourdes</v>
+        <v>Garcia Escudero, Lourdes</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13226,7 +13220,7 @@
       </c>
       <c r="E149" t="str">
         <f t="shared" si="2"/>
-        <v>           Garcia Gonzalez, Carmen Maria</v>
+        <v>Garcia Gonzalez, Carmen Maria</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13241,7 +13235,7 @@
       </c>
       <c r="E150" t="str">
         <f t="shared" si="2"/>
-        <v>           Garcia Gutierrez, Sonia</v>
+        <v>Garcia Gutierrez, Sonia</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13256,7 +13250,7 @@
       </c>
       <c r="E151" t="str">
         <f t="shared" si="2"/>
-        <v>           Garcia Leon, Florinda</v>
+        <v>Garcia Leon, Florinda</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13271,7 +13265,7 @@
       </c>
       <c r="E152" t="str">
         <f t="shared" si="2"/>
-        <v>           Garcia Lopez, Francisco</v>
+        <v>Garcia Lopez, Francisco</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13286,7 +13280,7 @@
       </c>
       <c r="E153" t="str">
         <f t="shared" si="2"/>
-        <v>           Garcia Lopez, Maria Julia</v>
+        <v>Garcia Lopez, Maria Julia</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13301,7 +13295,7 @@
       </c>
       <c r="E154" t="str">
         <f t="shared" si="2"/>
-        <v>           Garcia Martin, Maria Pilar</v>
+        <v>Garcia Martin, Maria Pilar</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13316,7 +13310,7 @@
       </c>
       <c r="E155" t="str">
         <f t="shared" si="2"/>
-        <v>           Garcia Martinez, Maribel</v>
+        <v>Garcia Martinez, Maribel</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13331,7 +13325,7 @@
       </c>
       <c r="E156" t="str">
         <f t="shared" si="2"/>
-        <v>           Garcia Marugan, Maria Elena</v>
+        <v>Garcia Marugan, Maria Elena</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13346,7 +13340,7 @@
       </c>
       <c r="E157" t="str">
         <f t="shared" si="2"/>
-        <v>           Garcia Marugan, Susana</v>
+        <v>Garcia Marugan, Susana</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13361,7 +13355,7 @@
       </c>
       <c r="E158" t="str">
         <f t="shared" si="2"/>
-        <v>           Garcia Mediavilla, Maria Carmen</v>
+        <v>Garcia Mediavilla, Maria Carmen</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13376,7 +13370,7 @@
       </c>
       <c r="E159" t="str">
         <f t="shared" si="2"/>
-        <v>           Garcia Mediavilla, Maria Dolores</v>
+        <v>Garcia Mediavilla, Maria Dolores</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13391,7 +13385,7 @@
       </c>
       <c r="E160" t="str">
         <f t="shared" si="2"/>
-        <v>           Garcia Mediavilla, Maria Piedad</v>
+        <v>Garcia Mediavilla, Maria Piedad</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13406,7 +13400,7 @@
       </c>
       <c r="E161" t="str">
         <f t="shared" si="2"/>
-        <v>           Garcia Ortega, Ana Maria</v>
+        <v>Garcia Ortega, Ana Maria</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13421,7 +13415,7 @@
       </c>
       <c r="E162" t="str">
         <f t="shared" si="2"/>
-        <v>           García Pérez, Josefa</v>
+        <v>García Pérez, Josefa</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13436,7 +13430,7 @@
       </c>
       <c r="E163" t="str">
         <f t="shared" si="2"/>
-        <v>           Garcia Roman, Maria Teresa</v>
+        <v>Garcia Roman, Maria Teresa</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13451,7 +13445,7 @@
       </c>
       <c r="E164" t="str">
         <f t="shared" si="2"/>
-        <v>           Garcia Salceda, Valentina</v>
+        <v>Garcia Salceda, Valentina</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13466,7 +13460,7 @@
       </c>
       <c r="E165" t="str">
         <f t="shared" si="2"/>
-        <v>           Garcia Salmones Gutierrez, M. Regina</v>
+        <v>Garcia Salmones Gutierrez, M. Regina</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13481,7 +13475,7 @@
       </c>
       <c r="E166" t="str">
         <f t="shared" si="2"/>
-        <v>           Garcia Teja, Ana Maria</v>
+        <v>Garcia Teja, Ana Maria</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13496,7 +13490,7 @@
       </c>
       <c r="E167" t="str">
         <f t="shared" si="2"/>
-        <v>           Garcia Teja, Juan Jose</v>
+        <v>Garcia Teja, Juan Jose</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13511,7 +13505,7 @@
       </c>
       <c r="E168" t="str">
         <f t="shared" si="2"/>
-        <v>           Garcia Vallejo, Paula</v>
+        <v>Garcia Vallejo, Paula</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13526,7 +13520,7 @@
       </c>
       <c r="E169" t="str">
         <f t="shared" si="2"/>
-        <v>           Garrido Bordetas, Iban</v>
+        <v>Garrido Bordetas, Iban</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13541,7 +13535,7 @@
       </c>
       <c r="E170" t="str">
         <f t="shared" si="2"/>
-        <v>           Garzon Gutierrez, Soledad</v>
+        <v>Garzon Gutierrez, Soledad</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13556,7 +13550,7 @@
       </c>
       <c r="E171" t="str">
         <f t="shared" si="2"/>
-        <v>           Giraldez Camus, Maria Pilar</v>
+        <v>Giraldez Camus, Maria Pilar</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13571,7 +13565,7 @@
       </c>
       <c r="E172" t="str">
         <f t="shared" si="2"/>
-        <v>           Girao Campaña, Sonia</v>
+        <v>Girao Campaña, Sonia</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13586,7 +13580,7 @@
       </c>
       <c r="E173" t="str">
         <f t="shared" si="2"/>
-        <v>           Goitia Gonzalez, Maria Encarnación</v>
+        <v>Goitia Gonzalez, Maria Encarnación</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13601,7 +13595,7 @@
       </c>
       <c r="E174" t="str">
         <f t="shared" si="2"/>
-        <v>           Gomez Cagigas, Elisa</v>
+        <v>Gomez Cagigas, Elisa</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13616,7 +13610,7 @@
       </c>
       <c r="E175" t="str">
         <f t="shared" si="2"/>
-        <v>           Gomez Cavia, Tamara</v>
+        <v>Gomez Cavia, Tamara</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13631,7 +13625,7 @@
       </c>
       <c r="E176" t="str">
         <f t="shared" si="2"/>
-        <v>           Gomez Fernandez, Francisca</v>
+        <v>Gomez Fernandez, Francisca</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13646,7 +13640,7 @@
       </c>
       <c r="E177" t="str">
         <f t="shared" si="2"/>
-        <v>           Gomez Lombilla, Milagros</v>
+        <v>Gomez Lombilla, Milagros</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13661,7 +13655,7 @@
       </c>
       <c r="E178" t="str">
         <f t="shared" si="2"/>
-        <v>           Gomez Ruiz, Ruth</v>
+        <v>Gomez Ruiz, Ruth</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13676,7 +13670,7 @@
       </c>
       <c r="E179" t="str">
         <f t="shared" si="2"/>
-        <v>           Gómez Segurola, María Rosario</v>
+        <v>Gómez Segurola, María Rosario</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13691,7 +13685,7 @@
       </c>
       <c r="E180" t="str">
         <f t="shared" si="2"/>
-        <v>           Gomez Serrano, Carmen</v>
+        <v>Gomez Serrano, Carmen</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13706,7 +13700,7 @@
       </c>
       <c r="E181" t="str">
         <f t="shared" si="2"/>
-        <v>           Gomez Vallejo, Maria Victoria</v>
+        <v>Gomez Vallejo, Maria Victoria</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13721,7 +13715,7 @@
       </c>
       <c r="E182" t="str">
         <f t="shared" si="2"/>
-        <v>           Gonzalez Ceballos, M. Milagros</v>
+        <v>Gonzalez Ceballos, M. Milagros</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13736,7 +13730,7 @@
       </c>
       <c r="E183" t="str">
         <f t="shared" si="2"/>
-        <v>           Gonzalez Cos, Maria Rosa</v>
+        <v>Gonzalez Cos, Maria Rosa</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13751,7 +13745,7 @@
       </c>
       <c r="E184" t="str">
         <f t="shared" si="2"/>
-        <v>           Gonzalez Garcia, Manuel</v>
+        <v>Gonzalez Garcia, Manuel</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13766,7 +13760,7 @@
       </c>
       <c r="E185" t="str">
         <f t="shared" si="2"/>
-        <v>           Gonzalez Hoyos, Noelia</v>
+        <v>Gonzalez Hoyos, Noelia</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13781,7 +13775,7 @@
       </c>
       <c r="E186" t="str">
         <f t="shared" si="2"/>
-        <v>           Gonzalez Martinez, Leticia</v>
+        <v>Gonzalez Martinez, Leticia</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13796,7 +13790,7 @@
       </c>
       <c r="E187" t="str">
         <f t="shared" si="2"/>
-        <v>           Gonzalez Pereda, Nuria</v>
+        <v>Gonzalez Pereda, Nuria</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13811,7 +13805,7 @@
       </c>
       <c r="E188" t="str">
         <f t="shared" si="2"/>
-        <v>           Gonzalez Regueiro, Irache</v>
+        <v>Gonzalez Regueiro, Irache</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13826,7 +13820,7 @@
       </c>
       <c r="E189" t="str">
         <f t="shared" si="2"/>
-        <v>           Gonzalez Rodriguez, Joanna</v>
+        <v>Gonzalez Rodriguez, Joanna</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13841,7 +13835,7 @@
       </c>
       <c r="E190" t="str">
         <f t="shared" si="2"/>
-        <v>           Gonzalez Roiz, Maria Leticia</v>
+        <v>Gonzalez Roiz, Maria Leticia</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13856,7 +13850,7 @@
       </c>
       <c r="E191" t="str">
         <f t="shared" si="2"/>
-        <v>           Gonzalez Rozas, Maria Jesus</v>
+        <v>Gonzalez Rozas, Maria Jesus</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13871,7 +13865,7 @@
       </c>
       <c r="E192" t="str">
         <f t="shared" si="2"/>
-        <v>           Gonzalez Ruiz, Maria Teresa</v>
+        <v>Gonzalez Ruiz, Maria Teresa</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13886,7 +13880,7 @@
       </c>
       <c r="E193" t="str">
         <f t="shared" si="2"/>
-        <v>           Gonzalez Vega, Maria Jesus</v>
+        <v>Gonzalez Vega, Maria Jesus</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13901,7 +13895,7 @@
       </c>
       <c r="E194" t="str">
         <f t="shared" si="2"/>
-        <v>           Gonzalez Viar, Beatriz</v>
+        <v>Gonzalez Viar, Beatriz</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13915,8 +13909,8 @@
         <v>8</v>
       </c>
       <c r="E195" t="str">
-        <f t="shared" ref="E195:E258" si="3">PROPER((TRIM(RIGHT(B195,LEN(B195)-4))))</f>
-        <v>           Gozalo Marguello, Ana Belen</v>
+        <f t="shared" ref="E195:E258" si="3">PROPER(TRIM(RIGHT(B195,LEN(B195)-FIND(" ",B195))))</f>
+        <v>Gozalo Marguello, Ana Belen</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13931,7 +13925,7 @@
       </c>
       <c r="E196" t="str">
         <f t="shared" si="3"/>
-        <v>           Grande Grande, M. Del Rosario</v>
+        <v>Grande Grande, M. Del Rosario</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13946,7 +13940,7 @@
       </c>
       <c r="E197" t="str">
         <f t="shared" si="3"/>
-        <v>           Guillaron Nuñez, Blanca Maria</v>
+        <v>Guillaron Nuñez, Blanca Maria</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13961,7 +13955,7 @@
       </c>
       <c r="E198" t="str">
         <f t="shared" si="3"/>
-        <v>           Gutierrez Arguello, Soraya</v>
+        <v>Gutierrez Arguello, Soraya</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13976,7 +13970,7 @@
       </c>
       <c r="E199" t="str">
         <f t="shared" si="3"/>
-        <v>           Gutierrez Diaz, Jesus Lilio</v>
+        <v>Gutierrez Diaz, Jesus Lilio</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13991,7 +13985,7 @@
       </c>
       <c r="E200" t="str">
         <f t="shared" si="3"/>
-        <v>           Gutierrez Gomez, Maria Dolores</v>
+        <v>Gutierrez Gomez, Maria Dolores</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14006,7 +14000,7 @@
       </c>
       <c r="E201" t="str">
         <f t="shared" si="3"/>
-        <v>           Gutierrez Martinez, Isabel Cintia</v>
+        <v>Gutierrez Martinez, Isabel Cintia</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14021,7 +14015,7 @@
       </c>
       <c r="E202" t="str">
         <f t="shared" si="3"/>
-        <v>           Gutierrez Martinez, Maria Del Mar</v>
+        <v>Gutierrez Martinez, Maria Del Mar</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14036,7 +14030,7 @@
       </c>
       <c r="E203" t="str">
         <f t="shared" si="3"/>
-        <v>           Gutierrez Martinez, Maria Sol</v>
+        <v>Gutierrez Martinez, Maria Sol</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14051,7 +14045,7 @@
       </c>
       <c r="E204" t="str">
         <f t="shared" si="3"/>
-        <v>           Gutierrez Perez, Nelly</v>
+        <v>Gutierrez Perez, Nelly</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14066,7 +14060,7 @@
       </c>
       <c r="E205" t="str">
         <f t="shared" si="3"/>
-        <v>           Gutierrez Rodriguez, Luisa Maria</v>
+        <v>Gutierrez Rodriguez, Luisa Maria</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14081,7 +14075,7 @@
       </c>
       <c r="E206" t="str">
         <f t="shared" si="3"/>
-        <v>           Gutierrez Sainz-Pardo, Maria Luisa</v>
+        <v>Gutierrez Sainz-Pardo, Maria Luisa</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14096,7 +14090,7 @@
       </c>
       <c r="E207" t="str">
         <f t="shared" si="3"/>
-        <v>           Gutierrez Santamaria, Piedad</v>
+        <v>Gutierrez Santamaria, Piedad</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14111,7 +14105,7 @@
       </c>
       <c r="E208" t="str">
         <f t="shared" si="3"/>
-        <v>           Gutierrez Vigeriago, Teresa</v>
+        <v>Gutierrez Vigeriago, Teresa</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14126,7 +14120,7 @@
       </c>
       <c r="E209" t="str">
         <f t="shared" si="3"/>
-        <v>           Gutiez Fuentecilla, Sandra Maria</v>
+        <v>Gutiez Fuentecilla, Sandra Maria</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14141,7 +14135,7 @@
       </c>
       <c r="E210" t="str">
         <f t="shared" si="3"/>
-        <v>           Hernando Castrillo, Maria Angeles</v>
+        <v>Hernando Castrillo, Maria Angeles</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14156,7 +14150,7 @@
       </c>
       <c r="E211" t="str">
         <f t="shared" si="3"/>
-        <v>           Herrera Basterretche, Luis Jaime</v>
+        <v>Herrera Basterretche, Luis Jaime</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14171,7 +14165,7 @@
       </c>
       <c r="E212" t="str">
         <f t="shared" si="3"/>
-        <v>           Herrera Entrecanales, Marta</v>
+        <v>Herrera Entrecanales, Marta</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14186,7 +14180,7 @@
       </c>
       <c r="E213" t="str">
         <f t="shared" si="3"/>
-        <v>           Herreria Saez, Gema</v>
+        <v>Herreria Saez, Gema</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14201,7 +14195,7 @@
       </c>
       <c r="E214" t="str">
         <f t="shared" si="3"/>
-        <v>           Herreria Sanchez, Araceli</v>
+        <v>Herreria Sanchez, Araceli</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14216,7 +14210,7 @@
       </c>
       <c r="E215" t="str">
         <f t="shared" si="3"/>
-        <v>           Herrero Garcia, M. Del Rosario</v>
+        <v>Herrero Garcia, M. Del Rosario</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14231,7 +14225,7 @@
       </c>
       <c r="E216" t="str">
         <f t="shared" si="3"/>
-        <v>           Herrero Laso, Sofia</v>
+        <v>Herrero Laso, Sofia</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14246,7 +14240,7 @@
       </c>
       <c r="E217" t="str">
         <f t="shared" si="3"/>
-        <v>           Herrero Ramos, Lucia Fatima</v>
+        <v>Herrero Ramos, Lucia Fatima</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14261,7 +14255,7 @@
       </c>
       <c r="E218" t="str">
         <f t="shared" si="3"/>
-        <v>           Herrero Suarez, Maria Nieves</v>
+        <v>Herrero Suarez, Maria Nieves</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14276,7 +14270,7 @@
       </c>
       <c r="E219" t="str">
         <f t="shared" si="3"/>
-        <v>           Herreros Blanco, Maria Carmen</v>
+        <v>Herreros Blanco, Maria Carmen</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14291,7 +14285,7 @@
       </c>
       <c r="E220" t="str">
         <f t="shared" si="3"/>
-        <v>           Hervas Briz, Cristina</v>
+        <v>Hervas Briz, Cristina</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14306,7 +14300,7 @@
       </c>
       <c r="E221" t="str">
         <f t="shared" si="3"/>
-        <v>           Hormaechea Mirones, Maria Luisa</v>
+        <v>Hormaechea Mirones, Maria Luisa</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14321,7 +14315,7 @@
       </c>
       <c r="E222" t="str">
         <f t="shared" si="3"/>
-        <v>           Hoyas Pinadero, Maria Isabel</v>
+        <v>Hoyas Pinadero, Maria Isabel</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14336,7 +14330,7 @@
       </c>
       <c r="E223" t="str">
         <f t="shared" si="3"/>
-        <v>           Hoyo Arce, Maria Lourdes</v>
+        <v>Hoyo Arce, Maria Lourdes</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14351,7 +14345,7 @@
       </c>
       <c r="E224" t="str">
         <f t="shared" si="3"/>
-        <v>           Hoyo Arce, Sara</v>
+        <v>Hoyo Arce, Sara</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14366,7 +14360,7 @@
       </c>
       <c r="E225" t="str">
         <f t="shared" si="3"/>
-        <v>           Huidobro Sierra, Marta Maria</v>
+        <v>Huidobro Sierra, Marta Maria</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14381,7 +14375,7 @@
       </c>
       <c r="E226" t="str">
         <f t="shared" si="3"/>
-        <v>           Ibars Velasco, Maria Rosario</v>
+        <v>Ibars Velasco, Maria Rosario</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14396,7 +14390,7 @@
       </c>
       <c r="E227" t="str">
         <f t="shared" si="3"/>
-        <v>           Iglesias Calva, Carmen</v>
+        <v>Iglesias Calva, Carmen</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14411,7 +14405,7 @@
       </c>
       <c r="E228" t="str">
         <f t="shared" si="3"/>
-        <v>           Iglesias Galvan, Maria Jose</v>
+        <v>Iglesias Galvan, Maria Jose</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14426,7 +14420,7 @@
       </c>
       <c r="E229" t="str">
         <f t="shared" si="3"/>
-        <v>           Incera Martinez, Maria Pilar</v>
+        <v>Incera Martinez, Maria Pilar</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14441,7 +14435,7 @@
       </c>
       <c r="E230" t="str">
         <f t="shared" si="3"/>
-        <v>           Ingelmo Garcia, Maria Carmen</v>
+        <v>Ingelmo Garcia, Maria Carmen</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14456,7 +14450,7 @@
       </c>
       <c r="E231" t="str">
         <f t="shared" si="3"/>
-        <v>           Jimenez Jimenez, Honorina</v>
+        <v>Jimenez Jimenez, Honorina</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14471,7 +14465,7 @@
       </c>
       <c r="E232" t="str">
         <f t="shared" si="3"/>
-        <v>           Jimenez Perez, Maria Ines</v>
+        <v>Jimenez Perez, Maria Ines</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14486,7 +14480,7 @@
       </c>
       <c r="E233" t="str">
         <f t="shared" si="3"/>
-        <v>           Juana Tejedor, Ana Maria De</v>
+        <v>Juana Tejedor, Ana Maria De</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14501,7 +14495,7 @@
       </c>
       <c r="E234" t="str">
         <f t="shared" si="3"/>
-        <v>           Lagüera Pino, M. Magdalena</v>
+        <v>Lagüera Pino, M. Magdalena</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14516,7 +14510,7 @@
       </c>
       <c r="E235" t="str">
         <f t="shared" si="3"/>
-        <v>           Laguera Pino, Maria Isabel</v>
+        <v>Laguera Pino, Maria Isabel</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14531,7 +14525,7 @@
       </c>
       <c r="E236" t="str">
         <f t="shared" si="3"/>
-        <v>           Lameiro Sanchez, Rosario</v>
+        <v>Lameiro Sanchez, Rosario</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14546,7 +14540,7 @@
       </c>
       <c r="E237" t="str">
         <f t="shared" si="3"/>
-        <v>           Lanza Cadelo, Maria Cruz</v>
+        <v>Lanza Cadelo, Maria Cruz</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14561,7 +14555,7 @@
       </c>
       <c r="E238" t="str">
         <f t="shared" si="3"/>
-        <v>           Lanza Mendez, Rebeca</v>
+        <v>Lanza Mendez, Rebeca</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14576,7 +14570,7 @@
       </c>
       <c r="E239" t="str">
         <f t="shared" si="3"/>
-        <v>           Laso San Sebastian, Pilar Ines</v>
+        <v>Laso San Sebastian, Pilar Ines</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14591,7 +14585,7 @@
       </c>
       <c r="E240" t="str">
         <f t="shared" si="3"/>
-        <v>           Lastra Martinez, Maria Blanca</v>
+        <v>Lastra Martinez, Maria Blanca</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14606,7 +14600,7 @@
       </c>
       <c r="E241" t="str">
         <f t="shared" si="3"/>
-        <v>           Lastra Vega, Elena</v>
+        <v>Lastra Vega, Elena</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14621,7 +14615,7 @@
       </c>
       <c r="E242" t="str">
         <f t="shared" si="3"/>
-        <v>           Lavin Eguia, Maria Dolores</v>
+        <v>Lavin Eguia, Maria Dolores</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14636,7 +14630,7 @@
       </c>
       <c r="E243" t="str">
         <f t="shared" si="3"/>
-        <v>           Laya Seijas, Maria Carmen</v>
+        <v>Laya Seijas, Maria Carmen</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14651,7 +14645,7 @@
       </c>
       <c r="E244" t="str">
         <f t="shared" si="3"/>
-        <v>           Lazcano Romaña, Agustina</v>
+        <v>Lazcano Romaña, Agustina</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14666,7 +14660,7 @@
       </c>
       <c r="E245" t="str">
         <f t="shared" si="3"/>
-        <v>           Lazcano Romaña, Carmen</v>
+        <v>Lazcano Romaña, Carmen</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14681,7 +14675,7 @@
       </c>
       <c r="E246" t="str">
         <f t="shared" si="3"/>
-        <v>           Liaño Pereda, Sonia</v>
+        <v>Liaño Pereda, Sonia</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14696,7 +14690,7 @@
       </c>
       <c r="E247" t="str">
         <f t="shared" si="3"/>
-        <v>           Llama San Emeterio, Juan Jose De La</v>
+        <v>Llama San Emeterio, Juan Jose De La</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14711,7 +14705,7 @@
       </c>
       <c r="E248" t="str">
         <f t="shared" si="3"/>
-        <v>           Llames Brizuela, Ana Maria</v>
+        <v>Llames Brizuela, Ana Maria</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14726,7 +14720,7 @@
       </c>
       <c r="E249" t="str">
         <f t="shared" si="3"/>
-        <v>           Llana Polanco, Elena</v>
+        <v>Llana Polanco, Elena</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14741,7 +14735,7 @@
       </c>
       <c r="E250" t="str">
         <f t="shared" si="3"/>
-        <v>           Lledias Villa, Alfonso Ramon</v>
+        <v>Lledias Villa, Alfonso Ramon</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14756,7 +14750,7 @@
       </c>
       <c r="E251" t="str">
         <f t="shared" si="3"/>
-        <v>           Lopez Arenas, Maria Jose</v>
+        <v>Lopez Arenas, Maria Jose</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14771,7 +14765,7 @@
       </c>
       <c r="E252" t="str">
         <f t="shared" si="3"/>
-        <v>           Lopez Arriola, Aurelia</v>
+        <v>Lopez Arriola, Aurelia</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14786,7 +14780,7 @@
       </c>
       <c r="E253" t="str">
         <f t="shared" si="3"/>
-        <v>           Lopez Camino, Marta</v>
+        <v>Lopez Camino, Marta</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14801,7 +14795,7 @@
       </c>
       <c r="E254" t="str">
         <f t="shared" si="3"/>
-        <v>           Lopez Campa, Maria Rosario</v>
+        <v>Lopez Campa, Maria Rosario</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14816,7 +14810,7 @@
       </c>
       <c r="E255" t="str">
         <f t="shared" si="3"/>
-        <v>           Lopez Campo, Maria Teresa</v>
+        <v>Lopez Campo, Maria Teresa</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14831,7 +14825,7 @@
       </c>
       <c r="E256" t="str">
         <f t="shared" si="3"/>
-        <v>           Lopez Fernandez, Maria Jesus</v>
+        <v>Lopez Fernandez, Maria Jesus</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14846,7 +14840,7 @@
       </c>
       <c r="E257" t="str">
         <f t="shared" si="3"/>
-        <v>           Lopez Fuente, Covadonga</v>
+        <v>Lopez Fuente, Covadonga</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14861,7 +14855,7 @@
       </c>
       <c r="E258" t="str">
         <f t="shared" si="3"/>
-        <v>           Lopez Fuente, Eva</v>
+        <v>Lopez Fuente, Eva</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14875,8 +14869,8 @@
         <v>6.8</v>
       </c>
       <c r="E259" t="str">
-        <f t="shared" ref="E259:E322" si="4">PROPER((TRIM(RIGHT(B259,LEN(B259)-4))))</f>
-        <v>           Lopez Fuente, Teresa</v>
+        <f t="shared" ref="E259:E322" si="4">PROPER(TRIM(RIGHT(B259,LEN(B259)-FIND(" ",B259))))</f>
+        <v>Lopez Fuente, Teresa</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14891,7 +14885,7 @@
       </c>
       <c r="E260" t="str">
         <f t="shared" si="4"/>
-        <v>           Lopez Fuente, Violeta</v>
+        <v>Lopez Fuente, Violeta</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14906,7 +14900,7 @@
       </c>
       <c r="E261" t="str">
         <f t="shared" si="4"/>
-        <v>           Lopez Garcia, Maria Adela</v>
+        <v>Lopez Garcia, Maria Adela</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14921,7 +14915,7 @@
       </c>
       <c r="E262" t="str">
         <f t="shared" si="4"/>
-        <v>           Lopez Montes, Clara Maria</v>
+        <v>Lopez Montes, Clara Maria</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14936,7 +14930,7 @@
       </c>
       <c r="E263" t="str">
         <f t="shared" si="4"/>
-        <v>           Lorenzo Cuesta, Jose Manuel</v>
+        <v>Lorenzo Cuesta, Jose Manuel</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14951,7 +14945,7 @@
       </c>
       <c r="E264" t="str">
         <f t="shared" si="4"/>
-        <v>           Lucas Pestaña, Maria Isabel</v>
+        <v>Lucas Pestaña, Maria Isabel</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14966,7 +14960,7 @@
       </c>
       <c r="E265" t="str">
         <f t="shared" si="4"/>
-        <v>           Luengo Herrero, Maria Herlinda</v>
+        <v>Luengo Herrero, Maria Herlinda</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14981,7 +14975,7 @@
       </c>
       <c r="E266" t="str">
         <f t="shared" si="4"/>
-        <v>           Luis Ruiz, Maria Begoña De</v>
+        <v>Luis Ruiz, Maria Begoña De</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14996,7 +14990,7 @@
       </c>
       <c r="E267" t="str">
         <f t="shared" si="4"/>
-        <v>           Magaldi Ruiz, Enma</v>
+        <v>Magaldi Ruiz, Enma</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15011,7 +15005,7 @@
       </c>
       <c r="E268" t="str">
         <f t="shared" si="4"/>
-        <v>           Marcos Gutierrez, Ana Isabel</v>
+        <v>Marcos Gutierrez, Ana Isabel</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15026,7 +15020,7 @@
       </c>
       <c r="E269" t="str">
         <f t="shared" si="4"/>
-        <v>           Marque Oceja, Rebeca</v>
+        <v>Marque Oceja, Rebeca</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15041,7 +15035,7 @@
       </c>
       <c r="E270" t="str">
         <f t="shared" si="4"/>
-        <v>           Martin Basco, Maria Jesus</v>
+        <v>Martin Basco, Maria Jesus</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15056,7 +15050,7 @@
       </c>
       <c r="E271" t="str">
         <f t="shared" si="4"/>
-        <v>           Martin Gutierrez, Maria Carmen</v>
+        <v>Martin Gutierrez, Maria Carmen</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15071,7 +15065,7 @@
       </c>
       <c r="E272" t="str">
         <f t="shared" si="4"/>
-        <v>           Martin Lopez, Yolanda</v>
+        <v>Martin Lopez, Yolanda</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15086,7 +15080,7 @@
       </c>
       <c r="E273" t="str">
         <f t="shared" si="4"/>
-        <v>           Martin Macias, Juan Enrique</v>
+        <v>Martin Macias, Juan Enrique</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15101,7 +15095,7 @@
       </c>
       <c r="E274" t="str">
         <f t="shared" si="4"/>
-        <v>           Martin Monje, M. Luisa</v>
+        <v>Martin Monje, M. Luisa</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15116,7 +15110,7 @@
       </c>
       <c r="E275" t="str">
         <f t="shared" si="4"/>
-        <v>           Martin Parra, Matilde</v>
+        <v>Martin Parra, Matilde</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15131,7 +15125,7 @@
       </c>
       <c r="E276" t="str">
         <f t="shared" si="4"/>
-        <v>           Martin San Martin, Carmen I.</v>
+        <v>Martin San Martin, Carmen I.</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15146,7 +15140,7 @@
       </c>
       <c r="E277" t="str">
         <f t="shared" si="4"/>
-        <v>           Martin San Martin, Maria Angeles</v>
+        <v>Martin San Martin, Maria Angeles</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15161,7 +15155,7 @@
       </c>
       <c r="E278" t="str">
         <f t="shared" si="4"/>
-        <v>           Martin Valle, Maria Mercedes</v>
+        <v>Martin Valle, Maria Mercedes</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15176,7 +15170,7 @@
       </c>
       <c r="E279" t="str">
         <f t="shared" si="4"/>
-        <v>           Martinez Agudo, Modesta</v>
+        <v>Martinez Agudo, Modesta</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15191,7 +15185,7 @@
       </c>
       <c r="E280" t="str">
         <f t="shared" si="4"/>
-        <v>           Martinez Cagigal, Maria Pilar</v>
+        <v>Martinez Cagigal, Maria Pilar</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15206,7 +15200,7 @@
       </c>
       <c r="E281" t="str">
         <f t="shared" si="4"/>
-        <v>           Martinez Palomero, M. Ascension</v>
+        <v>Martinez Palomero, M. Ascension</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15221,7 +15215,7 @@
       </c>
       <c r="E282" t="str">
         <f t="shared" si="4"/>
-        <v>           Martinez Toca, Maria Jesus</v>
+        <v>Martinez Toca, Maria Jesus</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15236,7 +15230,7 @@
       </c>
       <c r="E283" t="str">
         <f t="shared" si="4"/>
-        <v>           Mazas Marquez, Maria Del Pilar</v>
+        <v>Mazas Marquez, Maria Del Pilar</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15251,7 +15245,7 @@
       </c>
       <c r="E284" t="str">
         <f t="shared" si="4"/>
-        <v>           Mendez Ruiz, Concepcion</v>
+        <v>Mendez Ruiz, Concepcion</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15266,7 +15260,7 @@
       </c>
       <c r="E285" t="str">
         <f t="shared" si="4"/>
-        <v>           Meneses Velarde, Maria Mercedes</v>
+        <v>Meneses Velarde, Maria Mercedes</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15281,7 +15275,7 @@
       </c>
       <c r="E286" t="str">
         <f t="shared" si="4"/>
-        <v>           Merayo Solis, Maria Begoña</v>
+        <v>Merayo Solis, Maria Begoña</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15296,7 +15290,7 @@
       </c>
       <c r="E287" t="str">
         <f t="shared" si="4"/>
-        <v>           Merino Garcia, Maria Luisa</v>
+        <v>Merino Garcia, Maria Luisa</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15311,7 +15305,7 @@
       </c>
       <c r="E288" t="str">
         <f t="shared" si="4"/>
-        <v>           Miguel Gonzalez, Marina De</v>
+        <v>Miguel Gonzalez, Marina De</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15326,7 +15320,7 @@
       </c>
       <c r="E289" t="str">
         <f t="shared" si="4"/>
-        <v>           Miyar Fernandez, Margarita</v>
+        <v>Miyar Fernandez, Margarita</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15341,7 +15335,7 @@
       </c>
       <c r="E290" t="str">
         <f t="shared" si="4"/>
-        <v>           Molinos Espadas, Maria Angeles</v>
+        <v>Molinos Espadas, Maria Angeles</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15356,7 +15350,7 @@
       </c>
       <c r="E291" t="str">
         <f t="shared" si="4"/>
-        <v>           Monge Vivar, Alicia</v>
+        <v>Monge Vivar, Alicia</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15371,7 +15365,7 @@
       </c>
       <c r="E292" t="str">
         <f t="shared" si="4"/>
-        <v>           Montes Bustillo, Noelia</v>
+        <v>Montes Bustillo, Noelia</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15386,7 +15380,7 @@
       </c>
       <c r="E293" t="str">
         <f t="shared" si="4"/>
-        <v>           Moran Moran, Antonina</v>
+        <v>Moran Moran, Antonina</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15401,7 +15395,7 @@
       </c>
       <c r="E294" t="str">
         <f t="shared" si="4"/>
-        <v>           Moroso Medialdea, Beatriz</v>
+        <v>Moroso Medialdea, Beatriz</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15416,7 +15410,7 @@
       </c>
       <c r="E295" t="str">
         <f t="shared" si="4"/>
-        <v>           Movellan Abaroa, Carlos</v>
+        <v>Movellan Abaroa, Carlos</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15431,7 +15425,7 @@
       </c>
       <c r="E296" t="str">
         <f t="shared" si="4"/>
-        <v>           Mugica Poo, Aurora</v>
+        <v>Mugica Poo, Aurora</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15446,7 +15440,7 @@
       </c>
       <c r="E297" t="str">
         <f t="shared" si="4"/>
-        <v>           Nava Aguado, Maria</v>
+        <v>Nava Aguado, Maria</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15461,7 +15455,7 @@
       </c>
       <c r="E298" t="str">
         <f t="shared" si="4"/>
-        <v>           Noriega Gutierrez, Alejandro Jesus</v>
+        <v>Noriega Gutierrez, Alejandro Jesus</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15476,7 +15470,7 @@
       </c>
       <c r="E299" t="str">
         <f t="shared" si="4"/>
-        <v>           Nuñez Arango, Maria Paz</v>
+        <v>Nuñez Arango, Maria Paz</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15491,7 +15485,7 @@
       </c>
       <c r="E300" t="str">
         <f t="shared" si="4"/>
-        <v>           Nuñez Ordoñez, Olga</v>
+        <v>Nuñez Ordoñez, Olga</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15506,7 +15500,7 @@
       </c>
       <c r="E301" t="str">
         <f t="shared" si="4"/>
-        <v>           Obeso Garcia, Eva</v>
+        <v>Obeso Garcia, Eva</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15521,7 +15515,7 @@
       </c>
       <c r="E302" t="str">
         <f t="shared" si="4"/>
-        <v>           Obregon Perez, Maria Carmen</v>
+        <v>Obregon Perez, Maria Carmen</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15536,7 +15530,7 @@
       </c>
       <c r="E303" t="str">
         <f t="shared" si="4"/>
-        <v>           Ochoa Oceja, Juan Manuel</v>
+        <v>Ochoa Oceja, Juan Manuel</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15551,7 +15545,7 @@
       </c>
       <c r="E304" t="str">
         <f t="shared" si="4"/>
-        <v>           Ochogavias Gonzalez, Maria Dolores</v>
+        <v>Ochogavias Gonzalez, Maria Dolores</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15566,7 +15560,7 @@
       </c>
       <c r="E305" t="str">
         <f t="shared" si="4"/>
-        <v>           Olea Revilla, Adela</v>
+        <v>Olea Revilla, Adela</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15581,7 +15575,7 @@
       </c>
       <c r="E306" t="str">
         <f t="shared" si="4"/>
-        <v>           Ordoñez Rubio, Rosa Maria</v>
+        <v>Ordoñez Rubio, Rosa Maria</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15596,7 +15590,7 @@
       </c>
       <c r="E307" t="str">
         <f t="shared" si="4"/>
-        <v>           Ortega Barrio, M. Concepcion</v>
+        <v>Ortega Barrio, M. Concepcion</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15611,7 +15605,7 @@
       </c>
       <c r="E308" t="str">
         <f t="shared" si="4"/>
-        <v>           Ortuño Gancedo, Marina</v>
+        <v>Ortuño Gancedo, Marina</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15626,7 +15620,7 @@
       </c>
       <c r="E309" t="str">
         <f t="shared" si="4"/>
-        <v>           Osle Gomez, Maria Jesus</v>
+        <v>Osle Gomez, Maria Jesus</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15641,7 +15635,7 @@
       </c>
       <c r="E310" t="str">
         <f t="shared" si="4"/>
-        <v>           Palacio Perez, Ana</v>
+        <v>Palacio Perez, Ana</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15656,7 +15650,7 @@
       </c>
       <c r="E311" t="str">
         <f t="shared" si="4"/>
-        <v>           Palacios De Gurtubay, Carmen</v>
+        <v>Palacios De Gurtubay, Carmen</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15671,7 +15665,7 @@
       </c>
       <c r="E312" t="str">
         <f t="shared" si="4"/>
-        <v>           Palacios Gonzalez, Esperanza</v>
+        <v>Palacios Gonzalez, Esperanza</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15686,7 +15680,7 @@
       </c>
       <c r="E313" t="str">
         <f t="shared" si="4"/>
-        <v>           Palacios Oyarbide, Berta</v>
+        <v>Palacios Oyarbide, Berta</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15701,7 +15695,7 @@
       </c>
       <c r="E314" t="str">
         <f t="shared" si="4"/>
-        <v>           Palazuelo Perez, Mercedes</v>
+        <v>Palazuelo Perez, Mercedes</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15716,7 +15710,7 @@
       </c>
       <c r="E315" t="str">
         <f t="shared" si="4"/>
-        <v>           Palencia Gonzalez, Noelia</v>
+        <v>Palencia Gonzalez, Noelia</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15731,7 +15725,7 @@
       </c>
       <c r="E316" t="str">
         <f t="shared" si="4"/>
-        <v>           Paradelo Renteria, Luisa Maria</v>
+        <v>Paradelo Renteria, Luisa Maria</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15746,7 +15740,7 @@
       </c>
       <c r="E317" t="str">
         <f t="shared" si="4"/>
-        <v>           Parrado Nsang, Carmen</v>
+        <v>Parrado Nsang, Carmen</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15761,7 +15755,7 @@
       </c>
       <c r="E318" t="str">
         <f t="shared" si="4"/>
-        <v>           Parrado Villegas, Maria Lorena</v>
+        <v>Parrado Villegas, Maria Lorena</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15776,7 +15770,7 @@
       </c>
       <c r="E319" t="str">
         <f t="shared" si="4"/>
-        <v>           Payo Bahillo, M. Esther</v>
+        <v>Payo Bahillo, M. Esther</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15791,7 +15785,7 @@
       </c>
       <c r="E320" t="str">
         <f t="shared" si="4"/>
-        <v>           Pelaz Silva, Maria Mar</v>
+        <v>Pelaz Silva, Maria Mar</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15806,7 +15800,7 @@
       </c>
       <c r="E321" t="str">
         <f t="shared" si="4"/>
-        <v>           Pereda Barrio, Maria Angela</v>
+        <v>Pereda Barrio, Maria Angela</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15821,7 +15815,7 @@
       </c>
       <c r="E322" t="str">
         <f t="shared" si="4"/>
-        <v>           Perez Del Olmo, Maria Isabel</v>
+        <v>Perez Del Olmo, Maria Isabel</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15835,8 +15829,8 @@
         <v>7.55</v>
       </c>
       <c r="E323" t="str">
-        <f t="shared" ref="E323:E386" si="5">PROPER((TRIM(RIGHT(B323,LEN(B323)-4))))</f>
-        <v>           Perez Del Olmo, Maria Yolanda</v>
+        <f t="shared" ref="E323:E386" si="5">PROPER(TRIM(RIGHT(B323,LEN(B323)-FIND(" ",B323))))</f>
+        <v>Perez Del Olmo, Maria Yolanda</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15851,7 +15845,7 @@
       </c>
       <c r="E324" t="str">
         <f t="shared" si="5"/>
-        <v>           Perez Garcia, Sonia</v>
+        <v>Perez Garcia, Sonia</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15866,7 +15860,7 @@
       </c>
       <c r="E325" t="str">
         <f t="shared" si="5"/>
-        <v>           Perez Gonzalez, Maria</v>
+        <v>Perez Gonzalez, Maria</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15881,7 +15875,7 @@
       </c>
       <c r="E326" t="str">
         <f t="shared" si="5"/>
-        <v>           Perez Jorrin, Julia Maria</v>
+        <v>Perez Jorrin, Julia Maria</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15896,7 +15890,7 @@
       </c>
       <c r="E327" t="str">
         <f t="shared" si="5"/>
-        <v>           Perez Jorrin, Maria Jose</v>
+        <v>Perez Jorrin, Maria Jose</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15911,7 +15905,7 @@
       </c>
       <c r="E328" t="str">
         <f t="shared" si="5"/>
-        <v>           Perez Menendez, Maria Teresa</v>
+        <v>Perez Menendez, Maria Teresa</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15926,7 +15920,7 @@
       </c>
       <c r="E329" t="str">
         <f t="shared" si="5"/>
-        <v>           Perez Molinos, Graciela</v>
+        <v>Perez Molinos, Graciela</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15941,7 +15935,7 @@
       </c>
       <c r="E330" t="str">
         <f t="shared" si="5"/>
-        <v>           Perez Pelayo, Matilde</v>
+        <v>Perez Pelayo, Matilde</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15956,7 +15950,7 @@
       </c>
       <c r="E331" t="str">
         <f t="shared" si="5"/>
-        <v>           Perez Prado, Rocio</v>
+        <v>Perez Prado, Rocio</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15971,7 +15965,7 @@
       </c>
       <c r="E332" t="str">
         <f t="shared" si="5"/>
-        <v>           Perez Sampedro, Maria Filomena</v>
+        <v>Perez Sampedro, Maria Filomena</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15986,7 +15980,7 @@
       </c>
       <c r="E333" t="str">
         <f t="shared" si="5"/>
-        <v>           Porras Sanchez, Maria Carmen</v>
+        <v>Porras Sanchez, Maria Carmen</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16001,7 +15995,7 @@
       </c>
       <c r="E334" t="str">
         <f t="shared" si="5"/>
-        <v>           Portilla Quilez, Maria Leoncia</v>
+        <v>Portilla Quilez, Maria Leoncia</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16016,7 +16010,7 @@
       </c>
       <c r="E335" t="str">
         <f t="shared" si="5"/>
-        <v>           Portilla Tortosa, Maria Rocio</v>
+        <v>Portilla Tortosa, Maria Rocio</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16031,7 +16025,7 @@
       </c>
       <c r="E336" t="str">
         <f t="shared" si="5"/>
-        <v>           Prellezo Urresti, Mercedes</v>
+        <v>Prellezo Urresti, Mercedes</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16046,7 +16040,7 @@
       </c>
       <c r="E337" t="str">
         <f t="shared" si="5"/>
-        <v>           Presa Bajo, Marina</v>
+        <v>Presa Bajo, Marina</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16061,7 +16055,7 @@
       </c>
       <c r="E338" t="str">
         <f t="shared" si="5"/>
-        <v>           Prieto Martinez, Maria Carmen</v>
+        <v>Prieto Martinez, Maria Carmen</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16076,7 +16070,7 @@
       </c>
       <c r="E339" t="str">
         <f t="shared" si="5"/>
-        <v>           Puente Ferreño, Marta</v>
+        <v>Puente Ferreño, Marta</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16091,7 +16085,7 @@
       </c>
       <c r="E340" t="str">
         <f t="shared" si="5"/>
-        <v>           Puente Varona, M. Encarnacion</v>
+        <v>Puente Varona, M. Encarnacion</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16106,7 +16100,7 @@
       </c>
       <c r="E341" t="str">
         <f t="shared" si="5"/>
-        <v>           Quintana Cobo, Margarita</v>
+        <v>Quintana Cobo, Margarita</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16121,7 +16115,7 @@
       </c>
       <c r="E342" t="str">
         <f t="shared" si="5"/>
-        <v>           Quintana Cobo, Mercedes</v>
+        <v>Quintana Cobo, Mercedes</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16136,7 +16130,7 @@
       </c>
       <c r="E343" t="str">
         <f t="shared" si="5"/>
-        <v>           Quintana Goyeneche, Jose Javier</v>
+        <v>Quintana Goyeneche, Jose Javier</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16151,7 +16145,7 @@
       </c>
       <c r="E344" t="str">
         <f t="shared" si="5"/>
-        <v>           Quintana Rivas, Emma Luisa</v>
+        <v>Quintana Rivas, Emma Luisa</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16166,7 +16160,7 @@
       </c>
       <c r="E345" t="str">
         <f t="shared" si="5"/>
-        <v>           Quintana Rivas, Julia Josefa</v>
+        <v>Quintana Rivas, Julia Josefa</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16181,7 +16175,7 @@
       </c>
       <c r="E346" t="str">
         <f t="shared" si="5"/>
-        <v>           Rasilla Diego, Ana Isabel</v>
+        <v>Rasilla Diego, Ana Isabel</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16196,7 +16190,7 @@
       </c>
       <c r="E347" t="str">
         <f t="shared" si="5"/>
-        <v>           Real Ruiz-Canales, Maria Carmen</v>
+        <v>Real Ruiz-Canales, Maria Carmen</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16211,7 +16205,7 @@
       </c>
       <c r="E348" t="str">
         <f t="shared" si="5"/>
-        <v>           Rebanal Gonzalez, Maria Lourdes</v>
+        <v>Rebanal Gonzalez, Maria Lourdes</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16226,7 +16220,7 @@
       </c>
       <c r="E349" t="str">
         <f t="shared" si="5"/>
-        <v>           Renteria Puente, Carmen</v>
+        <v>Renteria Puente, Carmen</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16241,7 +16235,7 @@
       </c>
       <c r="E350" t="str">
         <f t="shared" si="5"/>
-        <v>           Retorta Manrique, Carmen</v>
+        <v>Retorta Manrique, Carmen</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16256,7 +16250,7 @@
       </c>
       <c r="E351" t="str">
         <f t="shared" si="5"/>
-        <v>           Revuelta Alonso, Maria Pilar</v>
+        <v>Revuelta Alonso, Maria Pilar</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16271,7 +16265,7 @@
       </c>
       <c r="E352" t="str">
         <f t="shared" si="5"/>
-        <v>           Rincon Jimenez, Maria Eugenia</v>
+        <v>Rincon Jimenez, Maria Eugenia</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16286,7 +16280,7 @@
       </c>
       <c r="E353" t="str">
         <f t="shared" si="5"/>
-        <v>           Rio Alcedo, Carmen Del</v>
+        <v>Rio Alcedo, Carmen Del</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16301,7 +16295,7 @@
       </c>
       <c r="E354" t="str">
         <f t="shared" si="5"/>
-        <v>           Rios Ramon, Maria Celsa</v>
+        <v>Rios Ramon, Maria Celsa</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16316,7 +16310,7 @@
       </c>
       <c r="E355" t="str">
         <f t="shared" si="5"/>
-        <v>           Rivas Barcena, Maria Carmen</v>
+        <v>Rivas Barcena, Maria Carmen</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16331,7 +16325,7 @@
       </c>
       <c r="E356" t="str">
         <f t="shared" si="5"/>
-        <v>           Rivas Villar, Maria Jesus</v>
+        <v>Rivas Villar, Maria Jesus</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16346,7 +16340,7 @@
       </c>
       <c r="E357" t="str">
         <f t="shared" si="5"/>
-        <v>           Rivera Perez, Carmen Gudelia</v>
+        <v>Rivera Perez, Carmen Gudelia</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16361,7 +16355,7 @@
       </c>
       <c r="E358" t="str">
         <f t="shared" si="5"/>
-        <v>           Rivero Celis, Maria Angeles</v>
+        <v>Rivero Celis, Maria Angeles</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16376,7 +16370,7 @@
       </c>
       <c r="E359" t="str">
         <f t="shared" si="5"/>
-        <v>           Rivero Merino, Yolanda</v>
+        <v>Rivero Merino, Yolanda</v>
       </c>
     </row>
     <row r="360" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16391,7 +16385,7 @@
       </c>
       <c r="E360" t="str">
         <f t="shared" si="5"/>
-        <v>           Robles Saiz, Almudena</v>
+        <v>Robles Saiz, Almudena</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16406,7 +16400,7 @@
       </c>
       <c r="E361" t="str">
         <f t="shared" si="5"/>
-        <v>           Rodriguez Garcia, Maria Jesus</v>
+        <v>Rodriguez Garcia, Maria Jesus</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16421,7 +16415,7 @@
       </c>
       <c r="E362" t="str">
         <f t="shared" si="5"/>
-        <v>           Rodriguez Gutierrez, Diana</v>
+        <v>Rodriguez Gutierrez, Diana</v>
       </c>
     </row>
     <row r="363" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16436,7 +16430,7 @@
       </c>
       <c r="E363" t="str">
         <f t="shared" si="5"/>
-        <v>           Rodriguez Prieto, Beatriz</v>
+        <v>Rodriguez Prieto, Beatriz</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16451,7 +16445,7 @@
       </c>
       <c r="E364" t="str">
         <f t="shared" si="5"/>
-        <v>           Rodriguez Rodriguez, Maria Herminia</v>
+        <v>Rodriguez Rodriguez, Maria Herminia</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16466,7 +16460,7 @@
       </c>
       <c r="E365" t="str">
         <f t="shared" si="5"/>
-        <v>           Rodriguez Santervas, Marta</v>
+        <v>Rodriguez Santervas, Marta</v>
       </c>
     </row>
     <row r="366" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16481,7 +16475,7 @@
       </c>
       <c r="E366" t="str">
         <f t="shared" si="5"/>
-        <v>           Rodriguez Viadero, Maria Angeles</v>
+        <v>Rodriguez Viadero, Maria Angeles</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16496,7 +16490,7 @@
       </c>
       <c r="E367" t="str">
         <f t="shared" si="5"/>
-        <v>           Romano Ruiz, Maria Puerto</v>
+        <v>Romano Ruiz, Maria Puerto</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16511,7 +16505,7 @@
       </c>
       <c r="E368" t="str">
         <f t="shared" si="5"/>
-        <v>           Rosas Cacho, Elvira</v>
+        <v>Rosas Cacho, Elvira</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16526,7 +16520,7 @@
       </c>
       <c r="E369" t="str">
         <f t="shared" si="5"/>
-        <v>           Ruesga Jorde, Maria Encarnacion</v>
+        <v>Ruesga Jorde, Maria Encarnacion</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16541,7 +16535,7 @@
       </c>
       <c r="E370" t="str">
         <f t="shared" si="5"/>
-        <v>           Ruidiaz Rubio, Maria Socorro</v>
+        <v>Ruidiaz Rubio, Maria Socorro</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16556,7 +16550,7 @@
       </c>
       <c r="E371" t="str">
         <f t="shared" si="5"/>
-        <v>           Ruiz Carriles, Maria Angeles</v>
+        <v>Ruiz Carriles, Maria Angeles</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16571,7 +16565,7 @@
       </c>
       <c r="E372" t="str">
         <f t="shared" si="5"/>
-        <v>           Ruiz Fernandez, Dolores</v>
+        <v>Ruiz Fernandez, Dolores</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16586,7 +16580,7 @@
       </c>
       <c r="E373" t="str">
         <f t="shared" si="5"/>
-        <v>           Ruiz Fernandez, Maria Amparo</v>
+        <v>Ruiz Fernandez, Maria Amparo</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16601,7 +16595,7 @@
       </c>
       <c r="E374" t="str">
         <f t="shared" si="5"/>
-        <v>           Ruiz Peña, Adoracion</v>
+        <v>Ruiz Peña, Adoracion</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16616,7 +16610,7 @@
       </c>
       <c r="E375" t="str">
         <f t="shared" si="5"/>
-        <v>           Ruiz Urueña, Estefania</v>
+        <v>Ruiz Urueña, Estefania</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16631,7 +16625,7 @@
       </c>
       <c r="E376" t="str">
         <f t="shared" si="5"/>
-        <v>           Rumayor Valdes, Ana Maria</v>
+        <v>Rumayor Valdes, Ana Maria</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16646,7 +16640,7 @@
       </c>
       <c r="E377" t="str">
         <f t="shared" si="5"/>
-        <v>           Sainz Ortiz, Rosa Eva</v>
+        <v>Sainz Ortiz, Rosa Eva</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16661,7 +16655,7 @@
       </c>
       <c r="E378" t="str">
         <f t="shared" si="5"/>
-        <v>           Saiz Camacho, Cesar Fernando</v>
+        <v>Saiz Camacho, Cesar Fernando</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16676,7 +16670,7 @@
       </c>
       <c r="E379" t="str">
         <f t="shared" si="5"/>
-        <v>           Saiz Fernandez, Carmen</v>
+        <v>Saiz Fernandez, Carmen</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16691,7 +16685,7 @@
       </c>
       <c r="E380" t="str">
         <f t="shared" si="5"/>
-        <v>           Saiz Fernandez, Fatima</v>
+        <v>Saiz Fernandez, Fatima</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16706,7 +16700,7 @@
       </c>
       <c r="E381" t="str">
         <f t="shared" si="5"/>
-        <v>           Saiz Gutierrez, Ana Maria</v>
+        <v>Saiz Gutierrez, Ana Maria</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16721,7 +16715,7 @@
       </c>
       <c r="E382" t="str">
         <f t="shared" si="5"/>
-        <v>           Saiz Gutierrez, Maria Carmen</v>
+        <v>Saiz Gutierrez, Maria Carmen</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16736,7 +16730,7 @@
       </c>
       <c r="E383" t="str">
         <f t="shared" si="5"/>
-        <v>           Saiz Muriedas, Carlos</v>
+        <v>Saiz Muriedas, Carlos</v>
       </c>
     </row>
     <row r="384" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16751,7 +16745,7 @@
       </c>
       <c r="E384" t="str">
         <f t="shared" si="5"/>
-        <v>           Saiz Quijano, Elena</v>
+        <v>Saiz Quijano, Elena</v>
       </c>
     </row>
     <row r="385" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16766,7 +16760,7 @@
       </c>
       <c r="E385" t="str">
         <f t="shared" si="5"/>
-        <v>           Saiz Rodriguez, Ana Isabel</v>
+        <v>Saiz Rodriguez, Ana Isabel</v>
       </c>
     </row>
     <row r="386" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16781,7 +16775,7 @@
       </c>
       <c r="E386" t="str">
         <f t="shared" si="5"/>
-        <v>           Salcines Roji, Maria Nuria</v>
+        <v>Salcines Roji, Maria Nuria</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16795,8 +16789,8 @@
         <v>5.05</v>
       </c>
       <c r="E387" t="str">
-        <f t="shared" ref="E387:E432" si="6">PROPER((TRIM(RIGHT(B387,LEN(B387)-4))))</f>
-        <v>           Salgado Gutierrez, Maria Esperanza</v>
+        <f t="shared" ref="E387:E432" si="6">PROPER(TRIM(RIGHT(B387,LEN(B387)-FIND(" ",B387))))</f>
+        <v>Salgado Gutierrez, Maria Esperanza</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16811,7 +16805,7 @@
       </c>
       <c r="E388" t="str">
         <f t="shared" si="6"/>
-        <v>           Samperio Calderon, Josefa</v>
+        <v>Samperio Calderon, Josefa</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16826,7 +16820,7 @@
       </c>
       <c r="E389" t="str">
         <f t="shared" si="6"/>
-        <v>           Samperio Iglesias, Maria Asuncion</v>
+        <v>Samperio Iglesias, Maria Asuncion</v>
       </c>
     </row>
     <row r="390" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16841,7 +16835,7 @@
       </c>
       <c r="E390" t="str">
         <f t="shared" si="6"/>
-        <v>           San Emeterio Alonso, Gema</v>
+        <v>San Emeterio Alonso, Gema</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16856,7 +16850,7 @@
       </c>
       <c r="E391" t="str">
         <f t="shared" si="6"/>
-        <v>           San Juan Lebeña, Mercedes</v>
+        <v>San Juan Lebeña, Mercedes</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16871,7 +16865,7 @@
       </c>
       <c r="E392" t="str">
         <f t="shared" si="6"/>
-        <v>           San Martin Corujo, Maria Violeta</v>
+        <v>San Martin Corujo, Maria Violeta</v>
       </c>
     </row>
     <row r="393" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16886,7 +16880,7 @@
       </c>
       <c r="E393" t="str">
         <f t="shared" si="6"/>
-        <v>           Sanchez Gutierrez, Maria Sefarina</v>
+        <v>Sanchez Gutierrez, Maria Sefarina</v>
       </c>
     </row>
     <row r="394" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16901,7 +16895,7 @@
       </c>
       <c r="E394" t="str">
         <f t="shared" si="6"/>
-        <v>           Sanchez Martinez, Roberto</v>
+        <v>Sanchez Martinez, Roberto</v>
       </c>
     </row>
     <row r="395" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16916,7 +16910,7 @@
       </c>
       <c r="E395" t="str">
         <f t="shared" si="6"/>
-        <v>           Sanchez Mosquera, Ana</v>
+        <v>Sanchez Mosquera, Ana</v>
       </c>
     </row>
     <row r="396" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16931,7 +16925,7 @@
       </c>
       <c r="E396" t="str">
         <f t="shared" si="6"/>
-        <v>           Sanchez Sanchez, Maria Angeles</v>
+        <v>Sanchez Sanchez, Maria Angeles</v>
       </c>
     </row>
     <row r="397" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16946,7 +16940,7 @@
       </c>
       <c r="E397" t="str">
         <f t="shared" si="6"/>
-        <v>           Sanchez Sosa, Maria Luisa</v>
+        <v>Sanchez Sosa, Maria Luisa</v>
       </c>
     </row>
     <row r="398" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16961,7 +16955,7 @@
       </c>
       <c r="E398" t="str">
         <f t="shared" si="6"/>
-        <v>           Sanchez Sosa, Maria Matilde</v>
+        <v>Sanchez Sosa, Maria Matilde</v>
       </c>
     </row>
     <row r="399" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16976,7 +16970,7 @@
       </c>
       <c r="E399" t="str">
         <f t="shared" si="6"/>
-        <v>           Sanchez Tubau, Maria Carmen</v>
+        <v>Sanchez Tubau, Maria Carmen</v>
       </c>
     </row>
     <row r="400" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16991,7 +16985,7 @@
       </c>
       <c r="E400" t="str">
         <f t="shared" si="6"/>
-        <v>           Sanchez Villar, Irene</v>
+        <v>Sanchez Villar, Irene</v>
       </c>
     </row>
     <row r="401" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17006,7 +17000,7 @@
       </c>
       <c r="E401" t="str">
         <f t="shared" si="6"/>
-        <v>           Santiago Gonzalez, Pilar</v>
+        <v>Santiago Gonzalez, Pilar</v>
       </c>
     </row>
     <row r="402" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17021,7 +17015,7 @@
       </c>
       <c r="E402" t="str">
         <f t="shared" si="6"/>
-        <v>           Santos Fernandez, Lucia</v>
+        <v>Santos Fernandez, Lucia</v>
       </c>
     </row>
     <row r="403" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17036,7 +17030,7 @@
       </c>
       <c r="E403" t="str">
         <f t="shared" si="6"/>
-        <v>           Sañudo Trevilla, Ana Belen</v>
+        <v>Sañudo Trevilla, Ana Belen</v>
       </c>
     </row>
     <row r="404" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17051,7 +17045,7 @@
       </c>
       <c r="E404" t="str">
         <f t="shared" si="6"/>
-        <v>           Serdio Diego, Angelita</v>
+        <v>Serdio Diego, Angelita</v>
       </c>
     </row>
     <row r="405" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17066,7 +17060,7 @@
       </c>
       <c r="E405" t="str">
         <f t="shared" si="6"/>
-        <v>           Setien Miguel, Maria Carmen</v>
+        <v>Setien Miguel, Maria Carmen</v>
       </c>
     </row>
     <row r="406" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17081,7 +17075,7 @@
       </c>
       <c r="E406" t="str">
         <f t="shared" si="6"/>
-        <v>           Sierra Guemes, Raquel</v>
+        <v>Sierra Guemes, Raquel</v>
       </c>
     </row>
     <row r="407" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17096,7 +17090,7 @@
       </c>
       <c r="E407" t="str">
         <f t="shared" si="6"/>
-        <v>           Sierra Gutierrez, Sonia</v>
+        <v>Sierra Gutierrez, Sonia</v>
       </c>
     </row>
     <row r="408" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17111,7 +17105,7 @@
       </c>
       <c r="E408" t="str">
         <f t="shared" si="6"/>
-        <v>           Solar Negrete, Maria Carmen</v>
+        <v>Solar Negrete, Maria Carmen</v>
       </c>
     </row>
     <row r="409" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17126,7 +17120,7 @@
       </c>
       <c r="E409" t="str">
         <f t="shared" si="6"/>
-        <v>           Tagle Bolado, Pilar</v>
+        <v>Tagle Bolado, Pilar</v>
       </c>
     </row>
     <row r="410" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17141,7 +17135,7 @@
       </c>
       <c r="E410" t="str">
         <f t="shared" si="6"/>
-        <v>           Terrones Haro, Maria Amelia</v>
+        <v>Terrones Haro, Maria Amelia</v>
       </c>
     </row>
     <row r="411" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17156,7 +17150,7 @@
       </c>
       <c r="E411" t="str">
         <f t="shared" si="6"/>
-        <v>           Toca Lopez, Nuria</v>
+        <v>Toca Lopez, Nuria</v>
       </c>
     </row>
     <row r="412" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17171,7 +17165,7 @@
       </c>
       <c r="E412" t="str">
         <f t="shared" si="6"/>
-        <v>           Torre Muñiz, Carmen Maria</v>
+        <v>Torre Muñiz, Carmen Maria</v>
       </c>
     </row>
     <row r="413" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17186,7 +17180,7 @@
       </c>
       <c r="E413" t="str">
         <f t="shared" si="6"/>
-        <v>           Uriarte Laso, Petra</v>
+        <v>Uriarte Laso, Petra</v>
       </c>
     </row>
     <row r="414" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17201,7 +17195,7 @@
       </c>
       <c r="E414" t="str">
         <f t="shared" si="6"/>
-        <v>           Valencia Bezos, Raquel</v>
+        <v>Valencia Bezos, Raquel</v>
       </c>
     </row>
     <row r="415" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17216,7 +17210,7 @@
       </c>
       <c r="E415" t="str">
         <f t="shared" si="6"/>
-        <v>           Vazquez Mantecon, Maria Rosario</v>
+        <v>Vazquez Mantecon, Maria Rosario</v>
       </c>
     </row>
     <row r="416" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17231,7 +17225,7 @@
       </c>
       <c r="E416" t="str">
         <f t="shared" si="6"/>
-        <v>           Vega Cuevas, Margarita</v>
+        <v>Vega Cuevas, Margarita</v>
       </c>
     </row>
     <row r="417" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17246,7 +17240,7 @@
       </c>
       <c r="E417" t="str">
         <f t="shared" si="6"/>
-        <v>           Velarde Salces, Ramona</v>
+        <v>Velarde Salces, Ramona</v>
       </c>
     </row>
     <row r="418" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17261,7 +17255,7 @@
       </c>
       <c r="E418" t="str">
         <f t="shared" si="6"/>
-        <v>           Velasco Gonzalez, Maria Rosario</v>
+        <v>Velasco Gonzalez, Maria Rosario</v>
       </c>
     </row>
     <row r="419" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17276,7 +17270,7 @@
       </c>
       <c r="E419" t="str">
         <f t="shared" si="6"/>
-        <v>           Velasco Gutierrez, Maria Teresa</v>
+        <v>Velasco Gutierrez, Maria Teresa</v>
       </c>
     </row>
     <row r="420" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17291,7 +17285,7 @@
       </c>
       <c r="E420" t="str">
         <f t="shared" si="6"/>
-        <v>           Venero Coteron, Emiliana</v>
+        <v>Venero Coteron, Emiliana</v>
       </c>
     </row>
     <row r="421" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17306,7 +17300,7 @@
       </c>
       <c r="E421" t="str">
         <f t="shared" si="6"/>
-        <v>           Venero Moreno, Isabel</v>
+        <v>Venero Moreno, Isabel</v>
       </c>
     </row>
     <row r="422" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17321,7 +17315,7 @@
       </c>
       <c r="E422" t="str">
         <f t="shared" si="6"/>
-        <v>           Viadero Crespo, Carmen Rosa</v>
+        <v>Viadero Crespo, Carmen Rosa</v>
       </c>
     </row>
     <row r="423" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17336,7 +17330,7 @@
       </c>
       <c r="E423" t="str">
         <f t="shared" si="6"/>
-        <v>           Villar Martin-Caro, Yolanda</v>
+        <v>Villar Martin-Caro, Yolanda</v>
       </c>
     </row>
     <row r="424" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17351,7 +17345,7 @@
       </c>
       <c r="E424" t="str">
         <f t="shared" si="6"/>
-        <v>           Villariño Mora, Catalina</v>
+        <v>Villariño Mora, Catalina</v>
       </c>
     </row>
     <row r="425" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17366,7 +17360,7 @@
       </c>
       <c r="E425" t="str">
         <f t="shared" si="6"/>
-        <v>           Villariño Mora, Margarita</v>
+        <v>Villariño Mora, Margarita</v>
       </c>
     </row>
     <row r="426" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17381,7 +17375,7 @@
       </c>
       <c r="E426" t="str">
         <f t="shared" si="6"/>
-        <v>           Villarraso Gomez, Maria Isabel</v>
+        <v>Villarraso Gomez, Maria Isabel</v>
       </c>
     </row>
     <row r="427" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17396,7 +17390,7 @@
       </c>
       <c r="E427" t="str">
         <f t="shared" si="6"/>
-        <v>           Villazan Del Rio, Maria Carmen</v>
+        <v>Villazan Del Rio, Maria Carmen</v>
       </c>
     </row>
     <row r="428" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17411,7 +17405,7 @@
       </c>
       <c r="E428" t="str">
         <f t="shared" si="6"/>
-        <v>           Villazan Del Rio, Maria Jose</v>
+        <v>Villazan Del Rio, Maria Jose</v>
       </c>
     </row>
     <row r="429" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17426,7 +17420,7 @@
       </c>
       <c r="E429" t="str">
         <f t="shared" si="6"/>
-        <v>           Villegas Obregon, Roberto</v>
+        <v>Villegas Obregon, Roberto</v>
       </c>
     </row>
     <row r="430" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17441,7 +17435,7 @@
       </c>
       <c r="E430" t="str">
         <f t="shared" si="6"/>
-        <v>           Zorrilla Pardo, Nieves</v>
+        <v>Zorrilla Pardo, Nieves</v>
       </c>
     </row>
     <row r="431" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17456,7 +17450,7 @@
       </c>
       <c r="E431" t="str">
         <f t="shared" si="6"/>
-        <v>           Zorrilla Tajo, Vanesa</v>
+        <v>Zorrilla Tajo, Vanesa</v>
       </c>
     </row>
     <row r="432" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17471,7 +17465,7 @@
       </c>
       <c r="E432" t="str">
         <f t="shared" si="6"/>
-        <v>           Zuloaga Benito, Maria Pilar</v>
+        <v>Zuloaga Benito, Maria Pilar</v>
       </c>
     </row>
   </sheetData>
